--- a/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_old_cbix_index/old_cbix_alumina_production_cost_calcs_excluding_common_elements.xlsx
+++ b/models/calculation engines/cbix2/outputs/default/workings_for_viu_adjustmnet_of_old_cbix_index/old_cbix_alumina_production_cost_calcs_excluding_common_elements.xlsx
@@ -501,7 +501,7 @@
         <v>0.53</v>
       </c>
       <c r="B2" t="n">
-        <v>0.07875</v>
+        <v>0.07874999999999999</v>
       </c>
       <c r="C2" t="n">
         <v>0.45125</v>
@@ -516,7 +516,7 @@
         <v>0.2057214259906058</v>
       </c>
       <c r="G2" t="n">
-        <v>49.9609177405757</v>
+        <v>49.96091774057569</v>
       </c>
       <c r="H2" t="n">
         <v>56.57898214285714</v>
